--- a/data/different_recommendations.xlsx
+++ b/data/different_recommendations.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RbDvCxBi0whzK+1wZo6q8d0PYhkB+DktMttOikyd7WI="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -156,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -168,9 +173,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -557,19 +559,19 @@
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>8.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>8.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>8.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>7.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>6.0</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -596,7 +598,7 @@
       <c r="N4" s="3">
         <v>6.0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>8.0</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -1142,8 +1144,8 @@
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>0</v>
+      <c r="F15" s="4">
+        <v>5.0</v>
       </c>
       <c r="G15" s="3">
         <v>3.0</v>
